--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3173.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3173.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229474106130779</v>
+        <v>1.033708930015564</v>
       </c>
       <c r="B1">
-        <v>1.548491661276397</v>
+        <v>2.298838138580322</v>
       </c>
       <c r="C1">
-        <v>2.224239726332284</v>
+        <v>4.586132526397705</v>
       </c>
       <c r="D1">
-        <v>7.077911361024596</v>
+        <v>1.259103775024414</v>
       </c>
       <c r="E1">
-        <v>4.121946413246344</v>
+        <v>1.264384388923645</v>
       </c>
     </row>
   </sheetData>
